--- a/medicine/Mort/Camille_sur_son_lit_de_mort/Camille_sur_son_lit_de_mort.xlsx
+++ b/medicine/Mort/Camille_sur_son_lit_de_mort/Camille_sur_son_lit_de_mort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camille sur son lit de mort est un tableau réalisé par le peintre français Claude Monet en 1879. Cette huile sur toile impressionniste représente l'épouse de l'artiste Camille Monet en raccourci sur son lit de mort. Don de Katia Granoff en 1963, l'œuvre fait partie des collections du musée d'Orsay, à Paris.
 </t>
@@ -511,7 +523,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Portrait post-mortem en peinture</t>
         </is>
